--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CB067-5AA6-7A41-8DBB-784EBD833C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49A406-E486-334E-BD2A-4C3425503561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="-1420" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Conventions</t>
   </si>
   <si>
-    <t>CF-1.6, NCAS-AMF-1.0</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -154,21 +151,12 @@
     <t>location_keywords</t>
   </si>
   <si>
-    <t>amf_vocabularies_release</t>
-  </si>
-  <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/0.5.0</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
     <t>comment</t>
   </si>
   <si>
-    <t>1 second</t>
-  </si>
-  <si>
     <t>v1.0</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>HMP155</t>
   </si>
   <si>
-    <t>ACE-tower: T/RH sensors 1-4</t>
-  </si>
-  <si>
     <t>Heather Guy</t>
   </si>
   <si>
@@ -251,6 +236,12 @@
   </si>
   <si>
     <t xml:space="preserve">Point measurements of temperature/ humidity from HMP155 sensors at four levels on the Summit Station met tower. </t>
+  </si>
+  <si>
+    <t>CF-1.6,</t>
+  </si>
+  <si>
+    <t>ace-tower: T/RH sensors 1-4</t>
   </si>
 </sst>
 </file>
@@ -342,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -396,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -693,7 +681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -716,273 +704,273 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -998,46 +986,42 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>45</v>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1054,7 +1038,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1062,7 +1046,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1077,11 +1061,11 @@
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,7 +1105,6 @@
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3941,18 +3924,15 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="6"/>
     </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1003" s="6"/>
-    </row>
+    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{A81EA282-EB99-E74C-B15B-78802EAE59B5}"/>
     <hyperlink ref="B26" r:id="rId2" xr:uid="{8C7EAD4C-D981-294A-B3D4-7E155471F5F9}"/>
     <hyperlink ref="B27" r:id="rId3" xr:uid="{9BDFF6EB-2417-D147-BEEF-0194951420F9}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{8C8C9813-E0BD-CD42-8059-6C32742986BC}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{1A6B8237-1E36-664B-BDF7-76463B9400F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49A406-E486-334E-BD2A-4C3425503561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D4762-6664-C644-9F0D-CF99BBFD3D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>Summit Station</t>
   </si>
   <si>
-    <t>72.572962N, -38.470361E</t>
-  </si>
-  <si>
     <t>3267 m</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>ace-tower: T/RH sensors 1-4</t>
+  </si>
+  <si>
+    <t>72.572962N -38.470361E</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -744,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,7 +942,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -989,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,7 +997,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D4762-6664-C644-9F0D-CF99BBFD3D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42148975-B897-F048-81BF-7A6E95C1A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>https://orcid.org/0000-0003-4560-4812</t>
   </si>
   <si>
-    <t>Acknowledgement of the University of Leeds as the data provider is required whenever and wherever these data are used</t>
-  </si>
-  <si>
     <t>Summit Station</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>72.572962N -38.470361E</t>
+  </si>
+  <si>
+    <t>Acknowledgement of the following grants is required: NSFGE Grant Award number: 1801318, NERC Grant Award number NE/S00906X/1</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -744,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -918,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,7 +942,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -989,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,7 +997,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42148975-B897-F048-81BF-7A6E95C1A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B0AF2-4F9B-2543-A740-D05A18230228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">Point measurements of temperature/ humidity from HMP155 sensors at four levels on the Summit Station met tower. </t>
   </si>
   <si>
-    <t>CF-1.6,</t>
-  </si>
-  <si>
     <t>ace-tower: T/RH sensors 1-4</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Acknowledgement of the following grants is required: NSFGE Grant Award number: 1801318, NERC Grant Award number NE/S00906X/1</t>
+  </si>
+  <si>
+    <t>CF-1.6</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>

--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B0AF2-4F9B-2543-A740-D05A18230228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C981B1-1033-1E4A-95A6-0C5F41FD7521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -184,9 +184,6 @@
     <t>As per manufacturers specifications</t>
   </si>
   <si>
-    <t>available on request</t>
-  </si>
-  <si>
     <t>1 minute</t>
   </si>
   <si>
@@ -217,12 +214,6 @@
     <t>Data collection start: 2019-06-01T00:00:00</t>
   </si>
   <si>
-    <t>Platform height (h0) is the top of the Met tower. Instrument height: HMP1=h0-12.3m, HMP2=h0-9.8m, HMP3=h0-4.5m, HMP4=h0-1m ,. Index: [HMP1, HMP2, HMP3, HMP4]</t>
-  </si>
-  <si>
-    <t>HMP1: pending, available on request, HMP2: P5020423, HMP3: pending, available on request, HMP4: pending, available on request</t>
-  </si>
-  <si>
     <t>N/a</t>
   </si>
   <si>
@@ -242,6 +233,15 @@
   </si>
   <si>
     <t>CF-1.6</t>
+  </si>
+  <si>
+    <t>https://github.com/heatherguy/ace-ceda-master/blob/master/calibration_certificates/SO5520007763_HMP155_Calibration_Certificates.pdf</t>
+  </si>
+  <si>
+    <t>HMP1: available on request, HMP2: P5020423, HMP3: available on request, HMP4: available on request</t>
+  </si>
+  <si>
+    <t>Platform height (h0) is the top of the Met tower. Instrument height: HMP1=h0-12.3m, HMP2=h0-9.8m, HMP3=h0-4.5m, HMP4=h0-1m , Index: [HMP1, HMP2, HMP3, HMP4]</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -389,6 +389,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,7 +685,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -704,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -744,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -752,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -792,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -815,16 +819,16 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>54</v>
+      <c r="B16" s="22">
+        <v>43446</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>67</v>
+      <c r="B17" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -840,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -856,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -870,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -878,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -886,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -910,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -918,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,7 +946,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,7 +974,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -989,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,7 +1001,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1013,7 +1017,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3931,8 +3935,9 @@
     <hyperlink ref="B26" r:id="rId2" xr:uid="{8C7EAD4C-D981-294A-B3D4-7E155471F5F9}"/>
     <hyperlink ref="B27" r:id="rId3" xr:uid="{9BDFF6EB-2417-D147-BEEF-0194951420F9}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{8C8C9813-E0BD-CD42-8059-6C32742986BC}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{222721FA-6A83-6546-A4E3-5C8F3EB27F34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/metadata/trh_profile_metadata.xlsx
+++ b/metadata/trh_profile_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C981B1-1033-1E4A-95A6-0C5F41FD7521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D0CCD-BAC4-194E-9E00-845ED8A65456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31300" yWindow="-1420" windowWidth="34520" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>v1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">timeSeriesPoint </t>
-  </si>
-  <si>
     <t>Vaisala</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Platform height (h0) is the top of the Met tower. Instrument height: HMP1=h0-12.3m, HMP2=h0-9.8m, HMP3=h0-4.5m, HMP4=h0-1m , Index: [HMP1, HMP2, HMP3, HMP4]</t>
+  </si>
+  <si>
+    <t>timeSeries</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -828,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -860,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -882,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -890,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -922,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -946,15 +946,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -974,7 +974,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -993,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1001,7 +1001,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1009,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1017,7 +1017,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
